--- a/file_export/huu_tri/quyetdinh_form.xlsx
+++ b/file_export/huu_tri/quyetdinh_form.xlsx
@@ -17,9 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <t>TRUNG ƯƠNG ĐOÀN TNCS HỒ CHÍ MINH</t>
-  </si>
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>do Bảo hiểm Xã hội tỉnh(thành phố)………………………..giải quyết theo quy định của pháp luật Bảo hiểm xã hội hiện hành.</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
@@ -226,6 +226,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -238,22 +253,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -569,317 +569,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="13"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="F2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="A17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A33:D40"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E40:J40"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:J1"/>
@@ -892,6 +887,11 @@
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A33:D40"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E40:J40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
